--- a/Relatório/Relatório gráfico.xlsx
+++ b/Relatório/Relatório gráfico.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\Projeto Sprint 2\Projeto-P-I\Relatório\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitoria\Documents\Bandtec\Pesquisa e inovação\projeto\ArquivosProjeto\Relatório\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D509D1-E8E6-4D92-8D8F-D81D5ED320D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B8E6F-5B46-41BD-8D10-A9FD77689DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Tomate</t>
   </si>
@@ -143,12 +140,18 @@
   <si>
     <t>Temperatura do Tomate (ºC)</t>
   </si>
+  <si>
+    <t>Temperatura do Alface</t>
+  </si>
+  <si>
+    <t>Umidade do alface</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +177,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -215,6 +211,50 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="22">
@@ -292,19 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -341,6 +369,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -498,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,9 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,41 +570,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,41 +631,83 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,37 +963,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16</c:v>
@@ -927,25 +1014,25 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
@@ -954,16 +1041,16 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,10 +1209,10 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58</c:v>
@@ -1134,76 +1221,76 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,31 +1761,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>26</c:v>
@@ -1710,22 +1797,22 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>27</c:v>
@@ -1752,16 +1839,16 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,43 +2004,43 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>57</c:v>
@@ -1965,43 +2052,43 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3658,376 +3745,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5546875" customWidth="1"/>
-    <col min="41" max="41" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" customWidth="1"/>
+    <col min="41" max="41" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F1" s="44" t="s">
+    <row r="1" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="AD1" s="43" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="AD1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
     </row>
-    <row r="2" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F2" s="9" t="s">
+    <row r="2" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F3" s="8">
+    <row r="3" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="14">
-        <v>19</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="46">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13">
         <v>62</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="AD3" s="7">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="AD3" s="57">
         <v>1</v>
       </c>
-      <c r="AE3" s="20">
-        <v>22</v>
-      </c>
-      <c r="AF3" s="55">
+      <c r="AE3" s="58">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="59">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F4" s="8">
+    <row r="4" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="46">
+        <v>13</v>
+      </c>
+      <c r="H4" s="13">
+        <v>64</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="57">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="60">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="61">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
         <v>21</v>
       </c>
-      <c r="H4" s="14">
-        <v>64</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="20">
-        <v>21</v>
-      </c>
-      <c r="AF4" s="56">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F5" s="8">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14">
-        <v>25</v>
-      </c>
-      <c r="H5" s="14">
-        <v>64</v>
-      </c>
-      <c r="J5" s="28">
+      <c r="H5" s="13">
+        <v>67</v>
+      </c>
+      <c r="J5" s="46">
         <f>MIN(G3:G32)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="52">
         <f>_xlfn.QUARTILE.EXC(G3:G32,1)</f>
-        <v>19</v>
-      </c>
-      <c r="L5" s="37">
+        <v>16</v>
+      </c>
+      <c r="L5" s="55">
         <f>AVERAGE(G3:G32)</f>
-        <v>23.366666666666667</v>
-      </c>
-      <c r="M5" s="31">
+        <v>23.866666666666667</v>
+      </c>
+      <c r="M5" s="48">
         <f>MEDIAN(G3:G32)</f>
-        <v>24</v>
-      </c>
-      <c r="N5" s="31">
+        <v>23.5</v>
+      </c>
+      <c r="N5" s="54">
         <f>_xlfn.QUARTILE.EXC(G3:G32,3)</f>
-        <v>26.5</v>
-      </c>
-      <c r="O5" s="32">
+        <v>32</v>
+      </c>
+      <c r="O5" s="50">
         <f>MAX(G3:G32)</f>
         <v>35</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="AD5" s="7">
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="AD5" s="57">
         <v>3</v>
       </c>
-      <c r="AE5" s="20">
-        <v>22</v>
-      </c>
-      <c r="AF5" s="57">
+      <c r="AE5" s="61">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="61">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13">
         <v>65</v>
       </c>
-      <c r="AJ5" s="43" t="s">
+      <c r="J6" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="R6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="AD6" s="57">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="59">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="61">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F6" s="8">
-        <v>4</v>
-      </c>
-      <c r="G6" s="14">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14">
-        <v>61</v>
-      </c>
-      <c r="J6" s="46" t="s">
+    <row r="7" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="50">
         <v>35</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="R6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="AD6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="20">
-        <v>24</v>
-      </c>
-      <c r="AF6" s="55">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="41" t="s">
+      <c r="H7" s="13">
+        <v>58</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AK6" s="41" t="s">
+      <c r="K7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AL6" s="42" t="s">
+      <c r="L7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="42" t="s">
+      <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="41" t="s">
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AO6" s="41" t="s">
+      <c r="O7" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="R7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="57">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="60">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="61">
+        <v>68</v>
+      </c>
+      <c r="AJ7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
     </row>
-    <row r="7" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F7" s="8">
-        <v>5</v>
-      </c>
-      <c r="G7" s="15">
-        <v>31</v>
-      </c>
-      <c r="H7" s="14">
-        <v>58</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="12" t="s">
+    <row r="8" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="49">
         <v>33</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="20">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="55">
-        <v>67</v>
-      </c>
-      <c r="AJ7" s="27">
-        <f>MIN(AE3:AE32)</f>
-        <v>21</v>
-      </c>
-      <c r="AK7" s="27">
-        <f>_xlfn.QUARTILE.EXC(AE3:AE32,1)</f>
-        <v>23</v>
-      </c>
-      <c r="AL7" s="26">
-        <f>AVERAGE(AE3:AE32)</f>
-        <v>26.5</v>
-      </c>
-      <c r="AM7" s="26">
-        <f>MEDIAN(AE3:AE32)</f>
-        <v>25</v>
-      </c>
-      <c r="AN7" s="24">
-        <f>_xlfn.QUARTILE.EXC(AE3:AE32,3)</f>
-        <v>30.25</v>
-      </c>
-      <c r="AO7" s="25">
-        <f>MAX(AE3:AE32)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F8" s="8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15">
-        <v>31</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>54</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="46">
         <f>MIN(H3:H32)</f>
-        <v>39</v>
-      </c>
-      <c r="K8" s="17">
+        <v>42</v>
+      </c>
+      <c r="K8" s="52">
         <f>_xlfn.QUARTILE.EXC(H3:H32,1)</f>
-        <v>50.75</v>
-      </c>
-      <c r="L8" s="18">
+        <v>48.75</v>
+      </c>
+      <c r="L8" s="55">
         <f>AVERAGE(H3:H32)</f>
-        <v>58.233333333333334</v>
-      </c>
-      <c r="M8" s="17">
+        <v>62.133333333333333</v>
+      </c>
+      <c r="M8" s="48">
         <f>MEDIAN(H3:H32)</f>
-        <v>61.5</v>
-      </c>
-      <c r="N8" s="17">
+        <v>63</v>
+      </c>
+      <c r="N8" s="49">
         <f>_xlfn.QUARTILE.EXC(H3:H32,3)</f>
-        <v>64</v>
-      </c>
-      <c r="O8" s="19">
+        <v>75</v>
+      </c>
+      <c r="O8" s="50">
         <f>MAX(H3:H32)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>14</v>
@@ -4053,95 +4099,137 @@
       <c r="Y8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="57">
         <v>6</v>
       </c>
-      <c r="AE8" s="20">
-        <v>25</v>
-      </c>
-      <c r="AF8" s="57">
-        <v>63</v>
+      <c r="AE8" s="61">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="62">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO8" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F9" s="8">
+    <row r="9" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="50">
         <v>35</v>
       </c>
-      <c r="H9" s="14">
-        <v>50</v>
-      </c>
-      <c r="AD9" s="7">
+      <c r="H9" s="13">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="57">
         <v>7</v>
       </c>
-      <c r="AE9" s="20">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="57">
-        <v>64</v>
+      <c r="AE9" s="58">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="63">
+        <v>78</v>
+      </c>
+      <c r="AJ9" s="28">
+        <f>MIN(AE3:AE32)</f>
+        <v>15</v>
+      </c>
+      <c r="AK9" s="29">
+        <f>_xlfn.QUARTILE.EXC(AE3:AE32,1)</f>
+        <v>21</v>
+      </c>
+      <c r="AL9" s="42">
+        <f>AVERAGE(AE3:AE32)</f>
+        <v>26</v>
+      </c>
+      <c r="AM9" s="42">
+        <f>MEDIAN(AE3:AE32)</f>
+        <v>27</v>
+      </c>
+      <c r="AN9" s="53">
+        <f>_xlfn.QUARTILE.EXC(AE3:AE32,3)</f>
+        <v>31</v>
+      </c>
+      <c r="AO9" s="43">
+        <f>MAX(AE3:AE32)</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F10" s="8">
+    <row r="10" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
         <v>8</v>
       </c>
-      <c r="G10" s="15">
-        <v>30</v>
-      </c>
-      <c r="H10" s="38">
+      <c r="G10" s="49">
+        <v>34</v>
+      </c>
+      <c r="H10" s="51">
         <v>46</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="R10" s="50" t="s">
+      <c r="J10" s="10"/>
+      <c r="R10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="AD10" s="7">
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="AD10" s="57">
         <v>8</v>
       </c>
-      <c r="AE10" s="20">
-        <v>24</v>
-      </c>
-      <c r="AF10" s="57">
-        <v>63</v>
-      </c>
-      <c r="AJ10" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
+      <c r="AE10" s="64">
+        <v>33</v>
+      </c>
+      <c r="AF10" s="64">
+        <v>80</v>
+      </c>
+      <c r="AJ10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
     </row>
-    <row r="11" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F11" s="8">
+    <row r="11" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
         <v>9</v>
       </c>
-      <c r="G11" s="14">
-        <v>28</v>
-      </c>
-      <c r="H11" s="39">
-        <v>43</v>
-      </c>
-      <c r="R11" s="28" t="s">
+      <c r="G11" s="50">
+        <v>35</v>
+      </c>
+      <c r="H11" s="46">
+        <v>42</v>
+      </c>
+      <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="29" t="s">
+      <c r="S11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -4156,43 +4244,43 @@
       <c r="Y11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="57">
         <v>9</v>
       </c>
-      <c r="AE11" s="20">
-        <v>21</v>
-      </c>
-      <c r="AF11" s="55">
-        <v>66</v>
-      </c>
-      <c r="AJ11" s="41" t="s">
+      <c r="AE11" s="61">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="64">
+        <v>80</v>
+      </c>
+      <c r="AJ11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AK11" s="41" t="s">
+      <c r="AK11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AL11" s="42" t="s">
+      <c r="AL11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AM11" s="42" t="s">
+      <c r="AM11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" s="41" t="s">
+      <c r="AN11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AO11" s="41" t="s">
+      <c r="AO11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F12" s="8">
+    <row r="12" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
         <v>10</v>
       </c>
-      <c r="G12" s="14">
-        <v>23</v>
-      </c>
-      <c r="H12" s="40">
-        <v>39</v>
+      <c r="G12" s="48">
+        <v>28</v>
+      </c>
+      <c r="H12" s="46">
+        <v>42</v>
       </c>
       <c r="R12" s="5">
         <v>0.42</v>
@@ -4218,160 +4306,160 @@
       <c r="Y12" s="5">
         <v>0.78</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="57">
         <v>10</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AE12" s="61">
         <v>26</v>
       </c>
-      <c r="AF12" s="57">
-        <v>61</v>
-      </c>
-      <c r="AJ12" s="59">
+      <c r="AF12" s="64">
+        <v>79</v>
+      </c>
+      <c r="AJ12" s="28">
         <f>MIN(AF3:AF32)</f>
-        <v>44</v>
-      </c>
-      <c r="AK12" s="59">
+        <v>55</v>
+      </c>
+      <c r="AK12" s="44">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,1)</f>
-        <v>54</v>
-      </c>
-      <c r="AL12" s="60">
+        <v>60</v>
+      </c>
+      <c r="AL12" s="45">
         <f>AVERAGE(AF3:AF32)</f>
-        <v>58.366666666666667</v>
-      </c>
-      <c r="AM12" s="61">
+        <v>67.63333333333334</v>
+      </c>
+      <c r="AM12" s="42">
         <f>MEDIAN(AF3:AF32)</f>
-        <v>58.5</v>
-      </c>
-      <c r="AN12" s="62">
+        <v>68</v>
+      </c>
+      <c r="AN12" s="53">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,3)</f>
-        <v>64</v>
-      </c>
-      <c r="AO12" s="63">
+        <v>75.25</v>
+      </c>
+      <c r="AO12" s="43">
         <f>MAX(AF3:AF32)</f>
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F13" s="8">
+    <row r="13" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F13" s="7">
         <v>11</v>
       </c>
       <c r="G13" s="14">
-        <v>19</v>
-      </c>
-      <c r="H13" s="39">
-        <v>44</v>
-      </c>
-      <c r="AD13" s="7">
+        <v>32</v>
+      </c>
+      <c r="H13" s="46">
+        <v>43</v>
+      </c>
+      <c r="AD13" s="57">
         <v>11</v>
       </c>
-      <c r="AE13" s="20">
+      <c r="AE13" s="61">
         <v>25</v>
       </c>
-      <c r="AF13" s="57">
-        <v>64</v>
+      <c r="AF13" s="63">
+        <v>76</v>
       </c>
     </row>
-    <row r="14" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F14" s="8">
+    <row r="14" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F14" s="7">
         <v>12</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="67">
         <v>16</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="51">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="57">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="61">
+        <v>24</v>
+      </c>
+      <c r="AF14" s="64">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F15" s="7">
+        <v>13</v>
+      </c>
+      <c r="G15" s="24">
+        <v>13</v>
+      </c>
+      <c r="H15" s="23">
+        <v>48</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
+      <c r="AD15" s="57">
+        <v>13</v>
+      </c>
+      <c r="AE15" s="59">
+        <v>21</v>
+      </c>
+      <c r="AF15" s="61">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F16" s="7">
+        <v>14</v>
+      </c>
+      <c r="G16" s="25">
+        <v>12</v>
+      </c>
+      <c r="H16" s="23">
+        <v>47</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="AD16" s="57">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="58">
+        <v>15</v>
+      </c>
+      <c r="AF16" s="61">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F17" s="7">
+        <v>15</v>
+      </c>
+      <c r="G17" s="67">
+        <v>16</v>
+      </c>
+      <c r="H17" s="23">
         <v>49</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="R17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AE14" s="20">
-        <v>24</v>
-      </c>
-      <c r="AF14" s="57">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F15" s="8">
-        <v>13</v>
-      </c>
-      <c r="G15" s="39">
-        <v>13</v>
-      </c>
-      <c r="H15" s="38">
-        <v>47</v>
-      </c>
-      <c r="R15" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="54"/>
-      <c r="AD15" s="7">
-        <v>13</v>
-      </c>
-      <c r="AE15" s="20">
-        <v>23</v>
-      </c>
-      <c r="AF15" s="57">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F16" s="8">
-        <v>14</v>
-      </c>
-      <c r="G16" s="40">
-        <v>12</v>
-      </c>
-      <c r="H16" s="14">
-        <v>52</v>
-      </c>
-      <c r="R16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="AD16" s="7">
-        <v>14</v>
-      </c>
-      <c r="AE16" s="20">
-        <v>22</v>
-      </c>
-      <c r="AF16" s="57">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F17" s="8">
-        <v>15</v>
-      </c>
-      <c r="G17" s="39">
-        <v>16</v>
-      </c>
-      <c r="H17" s="14">
-        <v>51</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="31" t="s">
+      <c r="U17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -4386,24 +4474,24 @@
       <c r="Y17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="57">
         <v>15</v>
       </c>
-      <c r="AE17" s="20">
-        <v>21</v>
-      </c>
-      <c r="AF17" s="56">
+      <c r="AE17" s="61">
+        <v>23</v>
+      </c>
+      <c r="AF17" s="60">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F18" s="8">
+    <row r="18" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F18" s="7">
         <v>16</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>20</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>56</v>
       </c>
       <c r="R18" s="6" t="s">
@@ -4430,86 +4518,86 @@
       <c r="Y18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="57">
         <v>16</v>
       </c>
-      <c r="AE18" s="20">
-        <v>26</v>
-      </c>
-      <c r="AF18" s="56">
+      <c r="AE18" s="60">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="60">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F19" s="8">
+    <row r="19" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F19" s="7">
         <v>17</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>23</v>
       </c>
-      <c r="H19" s="14">
-        <v>61</v>
-      </c>
-      <c r="AD19" s="7">
+      <c r="H19" s="13">
+        <v>62</v>
+      </c>
+      <c r="AD19" s="57">
         <v>17</v>
       </c>
-      <c r="AE19" s="20">
-        <v>24</v>
-      </c>
-      <c r="AF19" s="56">
+      <c r="AE19" s="63">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="58">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F20" s="8">
+    <row r="20" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F20" s="7">
         <v>18</v>
       </c>
-      <c r="G20" s="14">
-        <v>26</v>
-      </c>
-      <c r="H20" s="14">
-        <v>64</v>
-      </c>
-      <c r="R20" s="50" t="s">
+      <c r="G20" s="13">
+        <v>21</v>
+      </c>
+      <c r="H20" s="13">
+        <v>68</v>
+      </c>
+      <c r="R20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="AD20" s="7">
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="AD20" s="57">
         <v>18</v>
       </c>
-      <c r="AE20" s="20">
-        <v>23</v>
-      </c>
-      <c r="AF20" s="58">
-        <v>54</v>
+      <c r="AE20" s="64">
+        <v>33</v>
+      </c>
+      <c r="AF20" s="60">
+        <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F21" s="8">
+    <row r="21" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F21" s="7">
         <v>19</v>
       </c>
-      <c r="G21" s="14">
-        <v>26</v>
+      <c r="G21" s="13">
+        <v>28</v>
       </c>
       <c r="H21" s="14">
-        <v>67</v>
-      </c>
-      <c r="R21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="T21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="31" t="s">
+      <c r="U21" s="18" t="s">
         <v>13</v>
       </c>
       <c r="V21" s="4" t="s">
@@ -4524,25 +4612,25 @@
       <c r="Y21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="57">
         <v>19</v>
       </c>
-      <c r="AE21" s="20">
+      <c r="AE21" s="61">
         <v>27</v>
       </c>
-      <c r="AF21" s="58">
-        <v>53</v>
+      <c r="AF21" s="59">
+        <v>65</v>
       </c>
     </row>
-    <row r="22" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F22" s="8">
+    <row r="22" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F22" s="7">
         <v>20</v>
       </c>
-      <c r="G22" s="14">
-        <v>26</v>
+      <c r="G22" s="13">
+        <v>32</v>
       </c>
       <c r="H22" s="14">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R22" s="5">
         <v>0.55000000000000004</v>
@@ -4568,230 +4656,230 @@
       <c r="Y22" s="5">
         <v>0.8</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="57">
         <v>20</v>
       </c>
-      <c r="AE22" s="20">
+      <c r="AE22" s="61">
         <v>28</v>
       </c>
-      <c r="AF22" s="58">
-        <v>54</v>
+      <c r="AF22" s="60">
+        <v>58</v>
       </c>
     </row>
-    <row r="23" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F23" s="8">
+    <row r="23" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F23" s="7">
         <v>21</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
+        <v>21</v>
+      </c>
+      <c r="H23" s="50">
+        <v>78</v>
+      </c>
+      <c r="AD23" s="57">
+        <v>21</v>
+      </c>
+      <c r="AE23" s="61">
+        <v>27</v>
+      </c>
+      <c r="AF23" s="59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F24" s="7">
+        <v>22</v>
+      </c>
+      <c r="G24" s="67">
+        <v>16</v>
+      </c>
+      <c r="H24" s="13">
+        <v>62</v>
+      </c>
+      <c r="AD24" s="57">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="65">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F25" s="7">
+        <v>23</v>
+      </c>
+      <c r="G25" s="48">
         <v>26</v>
       </c>
-      <c r="H23" s="14">
-        <v>63</v>
-      </c>
-      <c r="AD23" s="7">
+      <c r="H25" s="13">
+        <v>68</v>
+      </c>
+      <c r="AD25" s="57">
+        <v>23</v>
+      </c>
+      <c r="AE25" s="63">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F26" s="7">
+        <v>24</v>
+      </c>
+      <c r="G26" s="14">
+        <v>32</v>
+      </c>
+      <c r="H26" s="47">
+        <v>75</v>
+      </c>
+      <c r="AD26" s="57">
+        <v>24</v>
+      </c>
+      <c r="AE26" s="63">
+        <v>31</v>
+      </c>
+      <c r="AF26" s="58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F27" s="7">
+        <v>25</v>
+      </c>
+      <c r="G27" s="13">
+        <v>25</v>
+      </c>
+      <c r="H27" s="68">
+        <v>76</v>
+      </c>
+      <c r="AD27" s="57">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="63">
+        <v>31</v>
+      </c>
+      <c r="AF27" s="59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F28" s="7">
+        <v>26</v>
+      </c>
+      <c r="G28" s="13">
+        <v>23</v>
+      </c>
+      <c r="H28" s="50">
+        <v>78</v>
+      </c>
+      <c r="AD28" s="57">
+        <v>26</v>
+      </c>
+      <c r="AE28" s="63">
+        <v>32</v>
+      </c>
+      <c r="AF28" s="58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F29" s="7">
+        <v>27</v>
+      </c>
+      <c r="G29" s="13">
+        <v>27</v>
+      </c>
+      <c r="H29" s="47">
+        <v>76</v>
+      </c>
+      <c r="AD29" s="57">
+        <v>27</v>
+      </c>
+      <c r="AE29" s="64">
+        <v>33</v>
+      </c>
+      <c r="AF29" s="66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F30" s="7">
+        <v>28</v>
+      </c>
+      <c r="G30" s="13">
+        <v>24</v>
+      </c>
+      <c r="H30" s="50">
+        <v>78</v>
+      </c>
+      <c r="AD30" s="57">
+        <v>28</v>
+      </c>
+      <c r="AE30" s="64">
+        <v>33</v>
+      </c>
+      <c r="AF30" s="64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F31" s="7">
+        <v>29</v>
+      </c>
+      <c r="G31" s="13">
         <v>21</v>
       </c>
-      <c r="AE23" s="20">
-        <v>27</v>
-      </c>
-      <c r="AF23" s="58">
+      <c r="H31" s="47">
+        <v>75</v>
+      </c>
+      <c r="AD31" s="57">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="64">
+        <v>33</v>
+      </c>
+      <c r="AF31" s="63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="F32" s="7">
+        <v>30</v>
+      </c>
+      <c r="G32" s="51">
+        <v>14</v>
+      </c>
+      <c r="H32" s="50">
+        <v>78</v>
+      </c>
+      <c r="AD32" s="57">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="63">
+        <v>31</v>
+      </c>
+      <c r="AF32" s="58">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F24" s="8">
-        <v>22</v>
-      </c>
-      <c r="G24" s="14">
-        <v>26</v>
-      </c>
-      <c r="H24" s="14">
-        <v>62</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>22</v>
-      </c>
-      <c r="AE24" s="21">
-        <v>29</v>
-      </c>
-      <c r="AF24" s="56">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F25" s="8">
-        <v>23</v>
-      </c>
-      <c r="G25" s="14">
-        <v>26</v>
-      </c>
-      <c r="H25" s="14">
-        <v>66</v>
-      </c>
-      <c r="AD25" s="7">
-        <v>23</v>
-      </c>
-      <c r="AE25" s="21">
-        <v>30</v>
-      </c>
-      <c r="AF25" s="56">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F26" s="8">
-        <v>24</v>
-      </c>
-      <c r="G26" s="14">
-        <v>28</v>
-      </c>
-      <c r="H26" s="14">
-        <v>69</v>
-      </c>
-      <c r="AD26" s="7">
-        <v>24</v>
-      </c>
-      <c r="AE26" s="22">
-        <v>31</v>
-      </c>
-      <c r="AF26" s="58">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F27" s="8">
-        <v>25</v>
-      </c>
-      <c r="G27" s="14">
-        <v>25</v>
-      </c>
-      <c r="H27" s="15">
-        <v>74</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>25</v>
-      </c>
-      <c r="AE27" s="22">
-        <v>31</v>
-      </c>
-      <c r="AF27" s="58">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F28" s="8">
-        <v>26</v>
-      </c>
-      <c r="G28" s="14">
-        <v>23</v>
-      </c>
-      <c r="H28" s="14">
-        <v>66</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>26</v>
-      </c>
-      <c r="AE28" s="22">
-        <v>32</v>
-      </c>
-      <c r="AF28" s="58">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F29" s="8">
-        <v>27</v>
-      </c>
-      <c r="G29" s="14">
-        <v>23</v>
-      </c>
-      <c r="H29" s="14">
-        <v>62</v>
-      </c>
-      <c r="AD29" s="7">
-        <v>27</v>
-      </c>
-      <c r="AE29" s="23">
-        <v>36</v>
-      </c>
-      <c r="AF29" s="58">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F30" s="8">
-        <v>28</v>
-      </c>
-      <c r="G30" s="14">
-        <v>19</v>
-      </c>
-      <c r="H30" s="14">
-        <v>61</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>28</v>
-      </c>
-      <c r="AE30" s="22">
-        <v>33</v>
-      </c>
-      <c r="AF30" s="58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F31" s="8">
-        <v>29</v>
-      </c>
-      <c r="G31" s="14">
-        <v>19</v>
-      </c>
-      <c r="H31" s="14">
-        <v>63</v>
-      </c>
-      <c r="AD31" s="7">
-        <v>29</v>
-      </c>
-      <c r="AE31" s="23">
-        <v>35</v>
-      </c>
-      <c r="AF31" s="58">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="6:32" x14ac:dyDescent="0.3">
-      <c r="F32" s="8">
-        <v>30</v>
-      </c>
-      <c r="G32" s="14">
-        <v>17</v>
-      </c>
-      <c r="H32" s="14">
-        <v>62</v>
-      </c>
-      <c r="AD32" s="7">
-        <v>30</v>
-      </c>
-      <c r="AE32" s="23">
-        <v>37</v>
-      </c>
-      <c r="AF32" s="58">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AJ7:AO7"/>
+    <mergeCell ref="AJ10:AO10"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="R16:Y16"/>
     <mergeCell ref="R20:Y20"/>
     <mergeCell ref="R6:Y6"/>
     <mergeCell ref="R10:Y10"/>
     <mergeCell ref="R5:Y5"/>
     <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="AJ10:AO10"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
